--- a/Concept/Bill of Materials.xlsx
+++ b/Concept/Bill of Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dm\github\akibot-doc\Bill of Materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dm\github\akibot-doc\Concept\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -317,9 +317,6 @@
     <t xml:space="preserve">Welding Cleaning </t>
   </si>
   <si>
-    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/21952b.pdf</t>
-  </si>
-  <si>
     <t>file:///C:/Users/dm/Downloads/ULN2803APG_datasheet_en_20121126%20(2).pdf</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/20001952C.pdf</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -737,6 +737,7 @@
     <xf numFmtId="166" fontId="7" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
@@ -1024,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:D49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1655,7 +1656,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="25">
         <v>4</v>
@@ -1667,7 +1668,7 @@
         <v>83</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="27"/>
@@ -2321,8 +2322,8 @@
       <c r="E36" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="30" t="s">
-        <v>97</v>
+      <c r="F36" s="72" t="s">
+        <v>111</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="27"/>
@@ -2426,7 +2427,7 @@
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="25">
         <v>5</v>
@@ -2438,7 +2439,7 @@
         <v>83</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="27"/>
@@ -2466,7 +2467,7 @@
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="25">
         <v>10</v>
@@ -31804,7 +31805,7 @@
       <c r="J1" s="39"/>
       <c r="K1" s="36"/>
       <c r="M1" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -31822,13 +31823,13 @@
       <c r="J2" s="22"/>
       <c r="K2" s="20"/>
       <c r="M2" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O2" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -45089,15 +45090,15 @@
   <sheetData>
     <row r="13" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
@@ -45108,7 +45109,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
@@ -45120,7 +45121,7 @@
         <v>1.4</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">

--- a/Concept/Bill of Materials.xlsx
+++ b/Concept/Bill of Materials.xlsx
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Navigation</t>
-  </si>
-  <si>
-    <t>Gyroscope (Magnetometer)</t>
   </si>
   <si>
     <t>Distance: IR Barrier (4 channel Obstacle Avoidance)</t>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>http://ww1.microchip.com/downloads/en/DeviceDoc/20001952C.pdf</t>
+  </si>
+  <si>
+    <t>Gyroscope (Magnetometer) - HMC5883L</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1054,11 +1054,11 @@
         <v>2</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="14"/>
       <c r="G1" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="6"/>
@@ -1164,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="6"/>
@@ -1240,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="6"/>
@@ -1331,7 +1331,7 @@
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="25">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="6"/>
@@ -1378,13 +1378,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="27"/>
@@ -1419,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="6"/>
@@ -1506,7 +1506,7 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="C14" s="25">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="6"/>
@@ -1544,7 +1544,7 @@
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="25">
         <v>2</v>
@@ -1553,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="6"/>
@@ -1582,7 +1582,7 @@
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="25">
         <v>1</v>
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="6"/>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="25">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="6"/>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="25">
         <v>4</v>
@@ -1665,10 +1665,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="27"/>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="25">
         <v>1</v>
@@ -1704,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19" s="6"/>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="25">
         <v>4</v>
@@ -1741,10 +1741,10 @@
         <v>5</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="27"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="22" spans="1:28" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="71">
         <v>4</v>
@@ -1841,10 +1841,10 @@
         <v>5</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="27"/>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="25">
         <v>6</v>
@@ -1880,7 +1880,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="6"/>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="12">
         <v>10</v>
@@ -1917,10 +1917,10 @@
         <v>5</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="27"/>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="29">
         <v>4</v>
@@ -1956,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="27"/>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="25">
         <v>2</v>
@@ -1992,10 +1992,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="27"/>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="25">
         <v>6</v>
@@ -2031,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F28" s="27"/>
       <c r="G28" s="6"/>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="30" spans="1:28" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
@@ -2121,7 +2121,7 @@
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="25">
         <v>1</v>
@@ -2130,7 +2130,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="6"/>
@@ -2159,7 +2159,7 @@
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="25">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="6"/>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="25">
         <v>1</v>
@@ -2205,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="6"/>
@@ -2234,7 +2234,7 @@
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="25">
         <v>1</v>
@@ -2243,7 +2243,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="6"/>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="25">
         <v>1</v>
@@ -2280,10 +2280,10 @@
         <v>5</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="27"/>
@@ -2311,7 +2311,7 @@
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="25">
         <v>5</v>
@@ -2320,10 +2320,10 @@
         <v>5</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="27"/>
@@ -2351,7 +2351,7 @@
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="25">
         <v>1</v>
@@ -2360,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="27"/>
       <c r="G37" s="6"/>
@@ -2389,7 +2389,7 @@
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="25">
         <v>10</v>
@@ -2398,7 +2398,7 @@
         <v>5</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="6"/>
@@ -2427,7 +2427,7 @@
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="25">
         <v>5</v>
@@ -2436,10 +2436,10 @@
         <v>5</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="27"/>
@@ -2467,7 +2467,7 @@
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="25">
         <v>10</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="41" spans="1:28" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
@@ -2535,7 +2535,7 @@
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="25">
         <v>1</v>
@@ -2544,11 +2544,11 @@
         <v>5</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
@@ -2575,7 +2575,7 @@
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="29">
         <v>10</v>
@@ -2584,10 +2584,10 @@
         <v>5</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="27"/>
@@ -2645,7 +2645,7 @@
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="25">
         <v>1</v>
@@ -2679,7 +2679,7 @@
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="25">
         <v>1</v>
@@ -2713,7 +2713,7 @@
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="25">
         <v>1</v>
@@ -2747,7 +2747,7 @@
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="25">
         <v>1</v>
@@ -2840,7 +2840,7 @@
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="26"/>
@@ -2872,7 +2872,7 @@
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="25">
         <v>2</v>
@@ -2906,7 +2906,7 @@
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="25">
         <v>1</v>
@@ -31782,35 +31782,35 @@
       <c r="A1" s="36"/>
       <c r="B1" s="36"/>
       <c r="C1" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>40</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" s="39"/>
       <c r="K1" s="36"/>
       <c r="M1" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="41"/>
@@ -31823,19 +31823,19 @@
       <c r="J2" s="22"/>
       <c r="K2" s="20"/>
       <c r="M2" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N2" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O2" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="46">
         <v>750</v>
@@ -31868,7 +31868,7 @@
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
       <c r="B4" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="46">
         <v>100</v>
@@ -31901,7 +31901,7 @@
     <row r="5" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="50"/>
       <c r="B5" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="46">
         <v>200</v>
@@ -31934,7 +31934,7 @@
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
       <c r="B6" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
@@ -31951,7 +31951,7 @@
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
       <c r="B7" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -31980,7 +31980,7 @@
     </row>
     <row r="9" spans="1:15" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="57"/>
@@ -31996,7 +31996,7 @@
     <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="46">
         <v>50</v>
@@ -32029,7 +32029,7 @@
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
       <c r="B11" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="46">
         <v>44</v>
@@ -32062,7 +32062,7 @@
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
       <c r="B12" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="46">
         <v>80</v>
@@ -32100,7 +32100,7 @@
     <row r="14" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="50"/>
       <c r="B14" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="46">
         <v>50</v>
@@ -32133,7 +32133,7 @@
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
       <c r="B15" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -32163,7 +32163,7 @@
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -32180,7 +32180,7 @@
     <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -32209,7 +32209,7 @@
     </row>
     <row r="20" spans="1:15" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="41"/>
@@ -32225,7 +32225,7 @@
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="46">
         <v>200</v>
@@ -32267,7 +32267,7 @@
     <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
       <c r="B22" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="46">
         <v>650</v>
@@ -32303,7 +32303,7 @@
     <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
       <c r="B23" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="46">
         <v>60</v>
@@ -32358,7 +32358,7 @@
     <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="63"/>
       <c r="D25" s="63"/>
@@ -32375,7 +32375,7 @@
         <v>2.5706510138740657</v>
       </c>
       <c r="K25" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -32393,7 +32393,7 @@
     </row>
     <row r="27" spans="1:15" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="41"/>
@@ -32409,7 +32409,7 @@
     <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
       <c r="B28" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="46">
         <v>100</v>
@@ -32439,7 +32439,7 @@
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
       <c r="B29" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="46">
         <v>50</v>
@@ -32481,7 +32481,7 @@
     </row>
     <row r="31" spans="1:15" s="66" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="67"/>
       <c r="D31" s="67"/>
@@ -32496,20 +32496,20 @@
     <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
       <c r="B32" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="46">
         <v>3100</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="47">
         <f>C32/1000</f>
         <v>3.1</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="47"/>
       <c r="H32" s="46"/>
@@ -32520,7 +32520,7 @@
     <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
       <c r="B33" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="46">
         <v>0.7</v>
@@ -32537,21 +32537,21 @@
     <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
       <c r="B34" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="46">
         <f>C32*C33</f>
         <v>2170</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="47">
         <f>C34/1000</f>
         <v>2.17</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="47"/>
       <c r="H34" s="46"/>
@@ -32579,21 +32579,21 @@
     <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
       <c r="B36" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="46">
         <f>C35*C34</f>
         <v>13020</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="47">
         <f>C36/1000</f>
         <v>13.02</v>
       </c>
       <c r="F36" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="47"/>
       <c r="H36" s="46"/>
@@ -32604,14 +32604,14 @@
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
       <c r="B37" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="46">
         <f>(C36/1000)*1.2</f>
         <v>15.623999999999999</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="46"/>
@@ -32624,13 +32624,13 @@
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
       <c r="B38" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="46">
         <v>3.7</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="46"/>
@@ -32643,14 +32643,14 @@
     <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
       <c r="B39" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="70">
         <f>E36*C38</f>
         <v>48.173999999999999</v>
       </c>
       <c r="D39" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="46"/>
@@ -32715,7 +32715,7 @@
     <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
       <c r="B44" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" s="46">
         <v>15</v>
@@ -45090,15 +45090,15 @@
   <sheetData>
     <row r="13" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.2">
@@ -45109,7 +45109,7 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.2">
@@ -45121,7 +45121,7 @@
         <v>1.4</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">

--- a/Concept/Bill of Materials.xlsx
+++ b/Concept/Bill of Materials.xlsx
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:AB1013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
